--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>698284.1374652556</v>
+        <v>695552.6411447607</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>125.2311878857684</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>9.874546009166636</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>200.5805366086259</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>156.127162662147</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>76.71587097450818</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>331.8315033289134</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>135.4095352681599</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>171.4994223265508</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>77.89738269949655</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,7 +1148,7 @@
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>280.7148389751105</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>22.79825004194883</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.3860496764733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>356.5845196044178</v>
+        <v>356.5845196044206</v>
       </c>
       <c r="G11" t="n">
         <v>409.8432760127576</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081966</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>114.7706165465607</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>50.80546296227484</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440905</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108359</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,10 +1819,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>106.9977768135395</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.799772605717519</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016435</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986288</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>103.1686991936183</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>146.7151441592098</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>180.9726497471651</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,16 +3430,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,13 +3478,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>223.6233581343933</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>110.0177171766861</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1624.753525949915</v>
+        <v>1172.829108994408</v>
       </c>
       <c r="C2" t="n">
-        <v>1624.753525949915</v>
+        <v>1172.829108994408</v>
       </c>
       <c r="D2" t="n">
-        <v>1624.753525949915</v>
+        <v>1046.332959614844</v>
       </c>
       <c r="E2" t="n">
-        <v>1238.965273351671</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>827.9793685620637</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>410.0155604602505</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.358616186807</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.892857925727</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y2" t="n">
-        <v>1624.753525949915</v>
+        <v>1559.428949058529</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>650.638205444305</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>650.638205444305</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>650.638205444305</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>422.6486545462877</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1534.318342165212</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="C5" t="n">
-        <v>1165.3558252248</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="D5" t="n">
-        <v>807.0901266180497</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="E5" t="n">
-        <v>807.0901266180497</v>
+        <v>769.0955750279682</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>358.1096702383606</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>344.1862661769515</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2311.057514205145</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>2311.057514205145</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y5" t="n">
-        <v>1920.918182229334</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4650,37 +4650,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750362</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>500.8207968750362</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>327.5890571512475</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>327.5890571512475</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1470.502670837244</v>
+        <v>761.1214924606386</v>
       </c>
       <c r="C8" t="n">
-        <v>1101.540153896833</v>
+        <v>392.1589755202269</v>
       </c>
       <c r="D8" t="n">
-        <v>743.2744552900822</v>
+        <v>392.1589755202269</v>
       </c>
       <c r="E8" t="n">
-        <v>357.4862026918379</v>
+        <v>392.1589755202269</v>
       </c>
       <c r="F8" t="n">
-        <v>350.5407019426345</v>
+        <v>385.2134747710234</v>
       </c>
       <c r="G8" t="n">
-        <v>337.493324219466</v>
+        <v>372.1660970478549</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906663</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>745.2439619368655</v>
+        <v>785.3786496953994</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1417.096460678711</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980024</v>
+        <v>1611.430673570693</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996628</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.934053515051</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2540.934053515051</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="U8" t="n">
-        <v>2540.934053515051</v>
+        <v>2287.242350260201</v>
       </c>
       <c r="V8" t="n">
-        <v>2209.87116617148</v>
+        <v>1956.179462916631</v>
       </c>
       <c r="W8" t="n">
-        <v>1857.102510901366</v>
+        <v>1603.410807646517</v>
       </c>
       <c r="X8" t="n">
-        <v>1857.102510901366</v>
+        <v>1229.945049385437</v>
       </c>
       <c r="Y8" t="n">
-        <v>1857.102510901366</v>
+        <v>839.805717409625</v>
       </c>
     </row>
     <row r="9">
@@ -4869,37 +4869,37 @@
         <v>484.7397722991365</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260215</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
         <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004798</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>625.9123413498401</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1266.457690816945</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1640.147320825857</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>620.8081818444795</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>331.6560054221592</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>76.97151721627236</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>849.4473100711502</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2266.424947555042</v>
+        <v>2266.424947555045</v>
       </c>
       <c r="C11" t="n">
-        <v>1897.462430614631</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D11" t="n">
-        <v>1539.19673200788</v>
+        <v>1539.196732007883</v>
       </c>
       <c r="E11" t="n">
-        <v>1153.408479409636</v>
+        <v>1153.408479409639</v>
       </c>
       <c r="F11" t="n">
         <v>793.22209597083</v>
       </c>
       <c r="G11" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251932</v>
+        <v>372.3074987251944</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128749</v>
+        <v>841.9378825128765</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.457663018649</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957686</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874792</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021278</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070873</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T11" t="n">
-        <v>4353.904749750192</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U11" t="n">
-        <v>4100.461420469741</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V11" t="n">
-        <v>3769.39853312617</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W11" t="n">
-        <v>3416.629877856056</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X11" t="n">
-        <v>3043.164119594976</v>
+        <v>3043.164119594979</v>
       </c>
       <c r="Y11" t="n">
-        <v>2653.024787619164</v>
+        <v>2653.024787619167</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J12" t="n">
-        <v>92.81162322608048</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K12" t="n">
-        <v>372.2013186925062</v>
+        <v>336.8751144585956</v>
       </c>
       <c r="L12" t="n">
-        <v>372.2013186925062</v>
+        <v>336.8751144585956</v>
       </c>
       <c r="M12" t="n">
-        <v>964.2196729446338</v>
+        <v>928.8934687107234</v>
       </c>
       <c r="N12" t="n">
-        <v>1586.31563634397</v>
+        <v>1550.98943211006</v>
       </c>
       <c r="O12" t="n">
-        <v>2133.192111344164</v>
+        <v>2097.865907110254</v>
       </c>
       <c r="P12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1002.813985992963</v>
+        <v>559.7775391487163</v>
       </c>
       <c r="C13" t="n">
-        <v>833.8778030650566</v>
+        <v>390.8413562208094</v>
       </c>
       <c r="D13" t="n">
-        <v>683.7611636527208</v>
+        <v>240.7247168084737</v>
       </c>
       <c r="E13" t="n">
-        <v>535.8480700703277</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="F13" t="n">
-        <v>484.5294206134844</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="G13" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="H13" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J13" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K13" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L13" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M13" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N13" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O13" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P13" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q13" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.516429368668</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S13" t="n">
-        <v>2177.346239107598</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T13" t="n">
-        <v>2177.346239107598</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>2177.346239107598</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>1922.661750901711</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W13" t="n">
-        <v>1633.244580864751</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>1405.255029966733</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y13" t="n">
-        <v>1184.462450823203</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="14">
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>579.1554649516144</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1176.533952578166</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5504,16 +5504,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190825</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400726</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121657</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121657</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138424</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703123</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5789,10 +5789,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5917,43 +5917,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235163</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>903.4258806613763</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,16 +5975,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5996,10 +5996,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,61 +6212,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,16 +6540,16 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6783,22 +6783,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>866.4638174991042</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1751.578900576778</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1496.894412370891</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1496.894412370891</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>513.8536007400717</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>513.8536007400717</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,10 +7424,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7549,16 +7549,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7740,7 +7740,7 @@
         <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7786,16 +7786,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.286579409329</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780422</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>243.4933181983577</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263471</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>176.8008973295432</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-8.976603420968626e-13</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22553,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>372.0558240630951</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>123.3422361557312</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,10 +22604,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>233.5353456801277</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22723,10 +22723,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>50.2915261372936</v>
+        <v>50.29152613729087</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>65.06136363537664</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>94.6155850606564</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>38.13892827624207</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012336</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>145.1398665102885</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>144.6341900408516</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345295085</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>139.4693302300343</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,13 +25366,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>62.56111625485082</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>35.40333084624518</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1009552.329408226</v>
+        <v>1009552.329408225</v>
       </c>
     </row>
     <row r="3">
@@ -26314,7 +26314,7 @@
         <v>375475.6212503242</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="D2" t="n">
         <v>410520.8849321418</v>
@@ -26323,19 +26323,19 @@
         <v>401339.8858190153</v>
       </c>
       <c r="F2" t="n">
+        <v>403573.2998450031</v>
+      </c>
+      <c r="G2" t="n">
+        <v>403573.299845003</v>
+      </c>
+      <c r="H2" t="n">
+        <v>403573.2998450031</v>
+      </c>
+      <c r="I2" t="n">
         <v>403573.2998450032</v>
       </c>
-      <c r="G2" t="n">
-        <v>403573.2998450031</v>
-      </c>
-      <c r="H2" t="n">
-        <v>403573.2998450032</v>
-      </c>
-      <c r="I2" t="n">
-        <v>403573.2998450031</v>
-      </c>
       <c r="J2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.299845003</v>
       </c>
       <c r="K2" t="n">
         <v>403573.2998450031</v>
@@ -26344,16 +26344,16 @@
         <v>403573.2998450031</v>
       </c>
       <c r="M2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="N2" t="n">
+        <v>403573.2998450029</v>
+      </c>
+      <c r="O2" t="n">
         <v>403573.2998450031</v>
       </c>
-      <c r="O2" t="n">
-        <v>403573.299845003</v>
-      </c>
       <c r="P2" t="n">
-        <v>403573.299845003</v>
+        <v>403573.2998450031</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>759320.2883924362</v>
+        <v>759320.2883924367</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504189</v>
+        <v>11452.26311504134</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925932</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>121077.7614108757</v>
+        <v>121077.7614108759</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704897</v>
+        <v>3077.01735570473</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169917.05013466</v>
+        <v>169917.0501346599</v>
       </c>
       <c r="C4" t="n">
-        <v>209922.4154630332</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
         <v>176266.9759012793</v>
@@ -26430,34 +26430,34 @@
         <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682752</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
         <v>5677.536566682751</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682747</v>
       </c>
       <c r="J4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5677.536566682751</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5677.536566682751</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5677.536566682747</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5677.536566682751</v>
+      </c>
+      <c r="P4" t="n">
         <v>5677.536566682745</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5677.536566682721</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5677.536566682719</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5677.536566682767</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>87562.0451708468</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-467268.3861622898</v>
+        <v>-467443.6124806986</v>
       </c>
       <c r="C6" t="n">
-        <v>117739.3914056989</v>
+        <v>117739.3914056987</v>
       </c>
       <c r="D6" t="n">
-        <v>-38064.41468809597</v>
+        <v>-38064.41468809595</v>
       </c>
       <c r="E6" t="n">
-        <v>-463793.5350327167</v>
+        <v>-463839.4400282828</v>
       </c>
       <c r="F6" t="n">
-        <v>285320.9703393714</v>
+        <v>285286.2324139361</v>
       </c>
       <c r="G6" t="n">
-        <v>296773.2334544134</v>
+        <v>296738.4955289776</v>
       </c>
       <c r="H6" t="n">
-        <v>296773.2334544134</v>
+        <v>296738.4955289775</v>
       </c>
       <c r="I6" t="n">
-        <v>296773.2334544132</v>
+        <v>296738.4955289776</v>
       </c>
       <c r="J6" t="n">
-        <v>120350.0142618201</v>
+        <v>120315.2763363845</v>
       </c>
       <c r="K6" t="n">
-        <v>296773.2334544134</v>
+        <v>296738.4955289775</v>
       </c>
       <c r="L6" t="n">
-        <v>296773.233454413</v>
+        <v>296738.4955289775</v>
       </c>
       <c r="M6" t="n">
-        <v>175695.4720435376</v>
+        <v>175660.7341181017</v>
       </c>
       <c r="N6" t="n">
-        <v>293696.2160987083</v>
+        <v>293661.4781732726</v>
       </c>
       <c r="O6" t="n">
-        <v>296773.2334544133</v>
+        <v>296738.4955289775</v>
       </c>
       <c r="P6" t="n">
-        <v>296773.2334544131</v>
+        <v>296738.4955289775</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>764.5649483783203</v>
+        <v>764.5649483783208</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625288602</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26981,13 +26981,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>485.8580175714503</v>
+        <v>485.8580175714511</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>485.8580175714503</v>
+        <v>485.8580175714511</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>485.8580175714503</v>
+        <v>485.8580175714511</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>229.4518537349146</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>94.21691279000717</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>209.5660032674696</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>75.04454241279808</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>188.5132374961972</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>80.63822099727716</v>
+        <v>83.36203824822886</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>304.836458963984</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>34.32604510010509</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27907,7 +27907,7 @@
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28059,25 +28059,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>263.7247482946422</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.19860367562146</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830429</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293306</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O11" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
-        <v>420.0532525768093</v>
+        <v>235.2308424901863</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>740.13237155043</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927636</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426203</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982452</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862159</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31908,34 +31908,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H13" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q13" t="n">
         <v>205.0641983561742</v>
@@ -31944,7 +31944,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -32072,7 +32072,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32081,22 +32081,22 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>263.7590256391492</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>539.0475940357379</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32309,25 +32309,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>489.3502824033309</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>547.6926421044561</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>550.5977692975241</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,19 +33260,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>377.6350660745956</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>592.1874941409601</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,13 +33962,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,34 +33977,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>360.3952288121461</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856228</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807258</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>415.3812225589228</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348618</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>377.4642727362752</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35270,7 +35270,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664388</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020579</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263696</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134826</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
-        <v>282.2118136024503</v>
+        <v>97.38940351582735</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094304</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O12" t="n">
-        <v>552.4004797981759</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P12" t="n">
-        <v>423.821735783915</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L13" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>132.4173135558158</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>396.4513495912935</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789214</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>347.2162484813126</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>405.5586081824378</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36285,7 +36285,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010434</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>416.6233618831939</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36908,19 +36908,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>453.6331143610859</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37874,13 +37874,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
